--- a/Expedia Templates/RedAwning/FillDown Repeater.xlsx
+++ b/Expedia Templates/RedAwning/FillDown Repeater.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3554fa33ad85cce8/github-repositories/core_ota/Expedia Templates/RedAwning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\Expedia Templates\RedAwning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{320CC4A4-B893-492B-95C3-C62041FA5EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{171641CB-B332-486E-B8E6-7B84AFF0F473}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB9B942-373B-4DC8-9F27-B36FFE5A889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="2520" windowWidth="28800" windowHeight="15345" xr2:uid="{F27A3CC8-6F10-42DB-B1EE-873F2DD0F8E3}"/>
+    <workbookView xWindow="14970" yWindow="6495" windowWidth="21510" windowHeight="13260" xr2:uid="{F27A3CC8-6F10-42DB-B1EE-873F2DD0F8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>HelperColumn</t>
   </si>
@@ -76,6 +76,39 @@
   </si>
   <si>
     <t>Result EIDs</t>
+  </si>
+  <si>
+    <t>The Battersea Secret - Modish and Bright 1bdr Flat</t>
+  </si>
+  <si>
+    <t>The Copenhagen Place - Enchanting 2bdr Flat With Balcony</t>
+  </si>
+  <si>
+    <t>The Hampstead Hideout - Glamorous 3bdr Flat With Balcony</t>
+  </si>
+  <si>
+    <t>The Old Hatfield Haven - Spacious 6BDR House with Garden</t>
+  </si>
+  <si>
+    <t>The Manor Gardens Retreat - Captivating 1bdr Flat With Terrace</t>
+  </si>
+  <si>
+    <t>The Brondesbury Hideaway - Stylish 3bdr Flat With Balcony + Parking</t>
+  </si>
+  <si>
+    <t>The Brondesbury Scenery - Bright 1bdr Flat With Balcony + Parking</t>
+  </si>
+  <si>
+    <t>The Tooting Hideout - Dazzling 3bdr Flat With Balcony</t>
+  </si>
+  <si>
+    <t>The Canary Wharf Place - Stunning 2bdr Flat</t>
+  </si>
+  <si>
+    <t>The Carshalton Place - Stunning 1bdr Flat</t>
+  </si>
+  <si>
+    <t>The Queensland Sanctuary - Trendy 2bdr Flat With Terrace</t>
   </si>
 </sst>
 </file>
@@ -189,10 +222,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +524,7 @@
   <dimension ref="A1:F679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F289" sqref="F2:F289"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,376 +556,310 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>96467338</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E2" cm="1">
-        <f t="array" aca="1" ref="E2:E290" ca="1">_xlfn.SEQUENCE(OFFSET(A1,COUNTA(A:A)-1,0))</f>
+        <f t="array" aca="1" ref="E2:E57" ca="1">_xlfn.SEQUENCE(OFFSET(A1,COUNTA(A:A)-1,0))</f>
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="str">
         <f ca="1">VLOOKUP(E2,$A$2:$B$978,2)</f>
-        <v>96467338</v>
+        <v>The Battersea Secret - Modish and Bright 1bdr Flat</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+C2</f>
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>96467341</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="str">
         <f t="shared" ref="F3:F66" ca="1" si="0">VLOOKUP(E3,$A$2:$B$978,2)</f>
-        <v>96467338</v>
+        <v>The Battersea Secret - Modish and Bright 1bdr Flat</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A28" si="1">A3+C3</f>
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>96467337</v>
+        <f t="shared" ref="A4:A13" si="1">A3+C3</f>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Battersea Secret - Modish and Bright 1bdr Flat</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>96467334</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Battersea Secret - Modish and Bright 1bdr Flat</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B6">
-        <v>96467340</v>
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Battersea Secret - Modish and Bright 1bdr Flat</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B7">
-        <v>96467339</v>
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Copenhagen Place - Enchanting 2bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B8">
-        <v>96416167</v>
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Copenhagen Place - Enchanting 2bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="B9">
-        <v>96416161</v>
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f ca="1"/>
         <v>8</v>
       </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Copenhagen Place - Enchanting 2bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="B10">
-        <v>96467343</v>
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Copenhagen Place - Enchanting 2bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="B11">
-        <v>96467333</v>
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <f ca="1"/>
         <v>10</v>
       </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Copenhagen Place - Enchanting 2bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
-        <v>161</v>
-      </c>
-      <c r="B12">
-        <v>96467330</v>
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <f ca="1"/>
         <v>11</v>
       </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Hampstead Hideout - Glamorous 3bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
-        <v>177</v>
-      </c>
-      <c r="B13">
-        <v>96417784</v>
-      </c>
-      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Hampstead Hideout - Glamorous 3bdr Flat With Balcony</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="E14">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Hampstead Hideout - Glamorous 3bdr Flat With Balcony</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="E15">
+        <f ca="1"/>
+        <v>14</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Hampstead Hideout - Glamorous 3bdr Flat With Balcony</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="E16">
+        <f ca="1"/>
+        <v>15</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Hampstead Hideout - Glamorous 3bdr Flat With Balcony</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="E17">
+        <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="E13">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <f t="shared" si="1"/>
-        <v>193</v>
-      </c>
-      <c r="B14">
-        <v>96416168</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <f ca="1"/>
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <f t="shared" si="1"/>
-        <v>209</v>
-      </c>
-      <c r="B15">
-        <v>96467332</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="B16">
-        <v>96416164</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <f ca="1"/>
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <f t="shared" si="1"/>
-        <v>241</v>
-      </c>
-      <c r="B17">
-        <v>96416160</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467338</v>
+      <c r="F17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Old Hatfield Haven - Spacious 6BDR House with Garden</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <f t="shared" si="1"/>
-        <v>257</v>
-      </c>
-      <c r="B18">
-        <v>96467346</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="E18">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Old Hatfield Haven - Spacious 6BDR House with Garden</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="B19">
-        <v>96467342</v>
-      </c>
-      <c r="C19">
-        <v>16</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="E19">
         <f ca="1"/>
         <v>18</v>
       </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Old Hatfield Haven - Spacious 6BDR House with Garden</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <f t="shared" si="1"/>
-        <v>289</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="E20">
         <f ca="1"/>
         <v>19</v>
       </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Old Hatfield Haven - Spacious 6BDR House with Garden</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,9 +868,9 @@
         <f ca="1"/>
         <v>20</v>
       </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Old Hatfield Haven - Spacious 6BDR House with Garden</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -916,9 +879,9 @@
         <f ca="1"/>
         <v>21</v>
       </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Manor Gardens Retreat - Captivating 1bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -927,9 +890,9 @@
         <f ca="1"/>
         <v>22</v>
       </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Manor Gardens Retreat - Captivating 1bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,9 +901,9 @@
         <f ca="1"/>
         <v>23</v>
       </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Manor Gardens Retreat - Captivating 1bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,9 +912,9 @@
         <f ca="1"/>
         <v>24</v>
       </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Manor Gardens Retreat - Captivating 1bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,9 +923,9 @@
         <f ca="1"/>
         <v>25</v>
       </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Manor Gardens Retreat - Captivating 1bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,9 +934,9 @@
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Hideaway - Stylish 3bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -982,9 +945,9 @@
         <f ca="1"/>
         <v>27</v>
       </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Hideaway - Stylish 3bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -993,9 +956,9 @@
         <f ca="1"/>
         <v>28</v>
       </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Hideaway - Stylish 3bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,9 +967,9 @@
         <f ca="1"/>
         <v>29</v>
       </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Hideaway - Stylish 3bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,9 +978,9 @@
         <f ca="1"/>
         <v>30</v>
       </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Hideaway - Stylish 3bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,9 +989,9 @@
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="F32">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Scenery - Bright 1bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,9 +1000,9 @@
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467341</v>
+      <c r="F33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Scenery - Bright 1bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,9 +1011,9 @@
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Scenery - Bright 1bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,9 +1022,9 @@
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Scenery - Bright 1bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,9 +1033,9 @@
         <f ca="1"/>
         <v>35</v>
       </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Brondesbury Scenery - Bright 1bdr Flat With Balcony + Parking</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,9 +1044,9 @@
         <f ca="1"/>
         <v>36</v>
       </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Tooting Hideout - Dazzling 3bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,9 +1055,9 @@
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Tooting Hideout - Dazzling 3bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,9 +1066,9 @@
         <f ca="1"/>
         <v>38</v>
       </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Tooting Hideout - Dazzling 3bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1114,9 +1077,9 @@
         <f ca="1"/>
         <v>39</v>
       </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Tooting Hideout - Dazzling 3bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1125,9 +1088,9 @@
         <f ca="1"/>
         <v>40</v>
       </c>
-      <c r="F41">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Tooting Hideout - Dazzling 3bdr Flat With Balcony</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1136,9 +1099,9 @@
         <f ca="1"/>
         <v>41</v>
       </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Canary Wharf Place - Stunning 2bdr Flat</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,9 +1110,9 @@
         <f ca="1"/>
         <v>42</v>
       </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Canary Wharf Place - Stunning 2bdr Flat</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,9 +1121,9 @@
         <f ca="1"/>
         <v>43</v>
       </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Canary Wharf Place - Stunning 2bdr Flat</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,9 +1132,9 @@
         <f ca="1"/>
         <v>44</v>
       </c>
-      <c r="F45">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Canary Wharf Place - Stunning 2bdr Flat</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1180,9 +1143,9 @@
         <f ca="1"/>
         <v>45</v>
       </c>
-      <c r="F46">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Canary Wharf Place - Stunning 2bdr Flat</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,9 +1154,9 @@
         <f ca="1"/>
         <v>46</v>
       </c>
-      <c r="F47">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Carshalton Place - Stunning 1bdr Flat</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1202,9 +1165,9 @@
         <f ca="1"/>
         <v>47</v>
       </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Carshalton Place - Stunning 1bdr Flat</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,9 +1176,9 @@
         <f ca="1"/>
         <v>48</v>
       </c>
-      <c r="F49">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467337</v>
+      <c r="F49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Carshalton Place - Stunning 1bdr Flat</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,9 +1187,9 @@
         <f ca="1"/>
         <v>49</v>
       </c>
-      <c r="F50">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F50" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Carshalton Place - Stunning 1bdr Flat</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,9 +1198,9 @@
         <f ca="1"/>
         <v>50</v>
       </c>
-      <c r="F51">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Carshalton Place - Stunning 1bdr Flat</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,9 +1209,9 @@
         <f ca="1"/>
         <v>51</v>
       </c>
-      <c r="F52">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F52" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Queensland Sanctuary - Trendy 2bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,9 +1220,9 @@
         <f ca="1"/>
         <v>52</v>
       </c>
-      <c r="F53">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Queensland Sanctuary - Trendy 2bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,9 +1231,9 @@
         <f ca="1"/>
         <v>53</v>
       </c>
-      <c r="F54">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F54" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Queensland Sanctuary - Trendy 2bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,9 +1242,9 @@
         <f ca="1"/>
         <v>54</v>
       </c>
-      <c r="F55">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Queensland Sanctuary - Trendy 2bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1290,9 +1253,9 @@
         <f ca="1"/>
         <v>55</v>
       </c>
-      <c r="F56">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>The Queensland Sanctuary - Trendy 2bdr Flat With Terrace</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,2506 +1266,1574 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="E58">
-        <f ca="1"/>
-        <v>57</v>
-      </c>
-      <c r="F58">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F58" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="E59">
-        <f ca="1"/>
-        <v>58</v>
-      </c>
-      <c r="F59">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F59" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="E60">
-        <f ca="1"/>
-        <v>59</v>
-      </c>
-      <c r="F60">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F60" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="E61">
-        <f ca="1"/>
-        <v>60</v>
-      </c>
-      <c r="F61">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F61" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="E62">
-        <f ca="1"/>
-        <v>61</v>
-      </c>
-      <c r="F62">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F62" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="E63">
-        <f ca="1"/>
-        <v>62</v>
-      </c>
-      <c r="F63">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F63" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="E64">
-        <f ca="1"/>
-        <v>63</v>
-      </c>
-      <c r="F64">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F64" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="E65">
-        <f ca="1"/>
-        <v>64</v>
-      </c>
-      <c r="F65">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467334</v>
+      <c r="F65" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="E66">
-        <f ca="1"/>
-        <v>65</v>
-      </c>
-      <c r="F66">
-        <f t="shared" ca="1" si="0"/>
-        <v>96467340</v>
+      <c r="F66" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="E67">
-        <f ca="1"/>
-        <v>66</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F130" ca="1" si="2">VLOOKUP(E67,$A$2:$B$978,2)</f>
-        <v>96467340</v>
+      <c r="F67" t="e">
+        <f t="shared" ref="F67:F130" si="2">VLOOKUP(E67,$A$2:$B$978,2)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="E68">
-        <f ca="1"/>
-        <v>67</v>
-      </c>
-      <c r="F68">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F68" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="E69">
-        <f ca="1"/>
-        <v>68</v>
-      </c>
-      <c r="F69">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F69" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="E70">
-        <f ca="1"/>
-        <v>69</v>
-      </c>
-      <c r="F70">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F70" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="E71">
-        <f ca="1"/>
-        <v>70</v>
-      </c>
-      <c r="F71">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F71" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="E72">
-        <f ca="1"/>
-        <v>71</v>
-      </c>
-      <c r="F72">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F72" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="E73">
-        <f ca="1"/>
-        <v>72</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F73" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="E74">
-        <f ca="1"/>
-        <v>73</v>
-      </c>
-      <c r="F74">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F74" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="E75">
-        <f ca="1"/>
-        <v>74</v>
-      </c>
-      <c r="F75">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F75" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="E76">
-        <f ca="1"/>
-        <v>75</v>
-      </c>
-      <c r="F76">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F76" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="E77">
-        <f ca="1"/>
-        <v>76</v>
-      </c>
-      <c r="F77">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F77" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="E78">
-        <f ca="1"/>
-        <v>77</v>
-      </c>
-      <c r="F78">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F78" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="E79">
-        <f ca="1"/>
-        <v>78</v>
-      </c>
-      <c r="F79">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F79" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="E80">
-        <f ca="1"/>
-        <v>79</v>
-      </c>
-      <c r="F80">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F80" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="E81">
-        <f ca="1"/>
-        <v>80</v>
-      </c>
-      <c r="F81">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467340</v>
+      <c r="F81" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="E82">
-        <f ca="1"/>
-        <v>81</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F82" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="E83">
-        <f ca="1"/>
-        <v>82</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F83" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="E84">
-        <f ca="1"/>
-        <v>83</v>
-      </c>
-      <c r="F84">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F84" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="E85">
-        <f ca="1"/>
-        <v>84</v>
-      </c>
-      <c r="F85">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F85" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="E86">
-        <f ca="1"/>
-        <v>85</v>
-      </c>
-      <c r="F86">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F86" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="E87">
-        <f ca="1"/>
-        <v>86</v>
-      </c>
-      <c r="F87">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F87" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="E88">
-        <f ca="1"/>
-        <v>87</v>
-      </c>
-      <c r="F88">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F88" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="E89">
-        <f ca="1"/>
-        <v>88</v>
-      </c>
-      <c r="F89">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F89" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="E90">
-        <f ca="1"/>
-        <v>89</v>
-      </c>
-      <c r="F90">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F90" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="E91">
-        <f ca="1"/>
-        <v>90</v>
-      </c>
-      <c r="F91">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F91" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="E92">
-        <f ca="1"/>
-        <v>91</v>
-      </c>
-      <c r="F92">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F92" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="E93">
-        <f ca="1"/>
-        <v>92</v>
-      </c>
-      <c r="F93">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F93" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="E94">
-        <f ca="1"/>
-        <v>93</v>
-      </c>
-      <c r="F94">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F94" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="E95">
-        <f ca="1"/>
-        <v>94</v>
-      </c>
-      <c r="F95">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F95" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="E96">
-        <f ca="1"/>
-        <v>95</v>
-      </c>
-      <c r="F96">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F96" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="E97">
-        <f ca="1"/>
-        <v>96</v>
-      </c>
-      <c r="F97">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467339</v>
+      <c r="F97" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="E98">
-        <f ca="1"/>
-        <v>97</v>
-      </c>
-      <c r="F98">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F98" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="E99">
-        <f ca="1"/>
-        <v>98</v>
-      </c>
-      <c r="F99">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F99" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="E100">
-        <f ca="1"/>
-        <v>99</v>
-      </c>
-      <c r="F100">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F100" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="E101">
-        <f ca="1"/>
-        <v>100</v>
-      </c>
-      <c r="F101">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F101" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="E102">
-        <f ca="1"/>
-        <v>101</v>
-      </c>
-      <c r="F102">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F102" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="E103">
-        <f ca="1"/>
-        <v>102</v>
-      </c>
-      <c r="F103">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F103" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="E104">
-        <f ca="1"/>
-        <v>103</v>
-      </c>
-      <c r="F104">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F104" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="E105">
-        <f ca="1"/>
-        <v>104</v>
-      </c>
-      <c r="F105">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F105" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-      <c r="E106">
-        <f ca="1"/>
-        <v>105</v>
-      </c>
-      <c r="F106">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F106" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
-      <c r="E107">
-        <f ca="1"/>
-        <v>106</v>
-      </c>
-      <c r="F107">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F107" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="E108">
-        <f ca="1"/>
-        <v>107</v>
-      </c>
-      <c r="F108">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F108" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-      <c r="E109">
-        <f ca="1"/>
-        <v>108</v>
-      </c>
-      <c r="F109">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F109" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-      <c r="E110">
-        <f ca="1"/>
-        <v>109</v>
-      </c>
-      <c r="F110">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F110" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
-      <c r="E111">
-        <f ca="1"/>
-        <v>110</v>
-      </c>
-      <c r="F111">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F111" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
-      <c r="E112">
-        <f ca="1"/>
-        <v>111</v>
-      </c>
-      <c r="F112">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F112" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-      <c r="E113">
-        <f ca="1"/>
-        <v>112</v>
-      </c>
-      <c r="F113">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416167</v>
+      <c r="F113" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="E114">
-        <f ca="1"/>
-        <v>113</v>
-      </c>
-      <c r="F114">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F114" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
-      <c r="E115">
-        <f ca="1"/>
-        <v>114</v>
-      </c>
-      <c r="F115">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F115" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-      <c r="E116">
-        <f ca="1"/>
-        <v>115</v>
-      </c>
-      <c r="F116">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F116" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
-      <c r="E117">
-        <f ca="1"/>
-        <v>116</v>
-      </c>
-      <c r="F117">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F117" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-      <c r="E118">
-        <f ca="1"/>
-        <v>117</v>
-      </c>
-      <c r="F118">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F118" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-      <c r="E119">
-        <f ca="1"/>
-        <v>118</v>
-      </c>
-      <c r="F119">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F119" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
-      <c r="E120">
-        <f ca="1"/>
-        <v>119</v>
-      </c>
-      <c r="F120">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F120" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
-      <c r="E121">
-        <f ca="1"/>
-        <v>120</v>
-      </c>
-      <c r="F121">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F121" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
-      <c r="E122">
-        <f ca="1"/>
-        <v>121</v>
-      </c>
-      <c r="F122">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F122" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
-      <c r="E123">
-        <f ca="1"/>
-        <v>122</v>
-      </c>
-      <c r="F123">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F123" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
-      <c r="E124">
-        <f ca="1"/>
-        <v>123</v>
-      </c>
-      <c r="F124">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F124" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
-      <c r="E125">
-        <f ca="1"/>
-        <v>124</v>
-      </c>
-      <c r="F125">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F125" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
-      <c r="E126">
-        <f ca="1"/>
-        <v>125</v>
-      </c>
-      <c r="F126">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F126" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
-      <c r="E127">
-        <f ca="1"/>
-        <v>126</v>
-      </c>
-      <c r="F127">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F127" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
-      <c r="E128">
-        <f ca="1"/>
-        <v>127</v>
-      </c>
-      <c r="F128">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F128" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
-      <c r="E129">
-        <f ca="1"/>
-        <v>128</v>
-      </c>
-      <c r="F129">
-        <f t="shared" ca="1" si="2"/>
-        <v>96416161</v>
+      <c r="F129" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
-      <c r="E130">
-        <f ca="1"/>
-        <v>129</v>
-      </c>
-      <c r="F130">
-        <f t="shared" ca="1" si="2"/>
-        <v>96467343</v>
+      <c r="F130" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
-      <c r="E131">
-        <f ca="1"/>
-        <v>130</v>
-      </c>
-      <c r="F131">
-        <f t="shared" ref="F131:F194" ca="1" si="3">VLOOKUP(E131,$A$2:$B$978,2)</f>
-        <v>96467343</v>
+      <c r="F131" t="e">
+        <f t="shared" ref="F131:F194" si="3">VLOOKUP(E131,$A$2:$B$978,2)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-      <c r="E132">
-        <f ca="1"/>
-        <v>131</v>
-      </c>
-      <c r="F132">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F132" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
-      <c r="E133">
-        <f ca="1"/>
-        <v>132</v>
-      </c>
-      <c r="F133">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F133" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-      <c r="E134">
-        <f ca="1"/>
-        <v>133</v>
-      </c>
-      <c r="F134">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F134" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
-      <c r="E135">
-        <f ca="1"/>
-        <v>134</v>
-      </c>
-      <c r="F135">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F135" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="E136">
-        <f ca="1"/>
-        <v>135</v>
-      </c>
-      <c r="F136">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F136" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
-      <c r="E137">
-        <f ca="1"/>
-        <v>136</v>
-      </c>
-      <c r="F137">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F137" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
-      <c r="E138">
-        <f ca="1"/>
-        <v>137</v>
-      </c>
-      <c r="F138">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F138" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
-      <c r="E139">
-        <f ca="1"/>
-        <v>138</v>
-      </c>
-      <c r="F139">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F139" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
-      <c r="E140">
-        <f ca="1"/>
-        <v>139</v>
-      </c>
-      <c r="F140">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F140" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
-      <c r="E141">
-        <f ca="1"/>
-        <v>140</v>
-      </c>
-      <c r="F141">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F141" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
-      <c r="E142">
-        <f ca="1"/>
-        <v>141</v>
-      </c>
-      <c r="F142">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F142" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
-      <c r="E143">
-        <f ca="1"/>
-        <v>142</v>
-      </c>
-      <c r="F143">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F143" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
-      <c r="E144">
-        <f ca="1"/>
-        <v>143</v>
-      </c>
-      <c r="F144">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F144" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
-      <c r="E145">
-        <f ca="1"/>
-        <v>144</v>
-      </c>
-      <c r="F145">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467343</v>
+      <c r="F145" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E146">
-        <f ca="1"/>
-        <v>145</v>
-      </c>
-      <c r="F146">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F146" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E147">
-        <f ca="1"/>
-        <v>146</v>
-      </c>
-      <c r="F147">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F147" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E148">
-        <f ca="1"/>
-        <v>147</v>
-      </c>
-      <c r="F148">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F148" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E149">
-        <f ca="1"/>
-        <v>148</v>
-      </c>
-      <c r="F149">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F149" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E150">
-        <f ca="1"/>
-        <v>149</v>
-      </c>
-      <c r="F150">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F150" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E151">
-        <f ca="1"/>
-        <v>150</v>
-      </c>
-      <c r="F151">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F151" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E152">
-        <f ca="1"/>
-        <v>151</v>
-      </c>
-      <c r="F152">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F152" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E153">
-        <f ca="1"/>
-        <v>152</v>
-      </c>
-      <c r="F153">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F153" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E154">
-        <f ca="1"/>
-        <v>153</v>
-      </c>
-      <c r="F154">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F154" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E155">
-        <f ca="1"/>
-        <v>154</v>
-      </c>
-      <c r="F155">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F155" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E156">
-        <f ca="1"/>
-        <v>155</v>
-      </c>
-      <c r="F156">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F156" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E157">
-        <f ca="1"/>
-        <v>156</v>
-      </c>
-      <c r="F157">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F157" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E158">
-        <f ca="1"/>
-        <v>157</v>
-      </c>
-      <c r="F158">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F158" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E159">
-        <f ca="1"/>
-        <v>158</v>
-      </c>
-      <c r="F159">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
+      <c r="F159" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E160">
-        <f ca="1"/>
-        <v>159</v>
-      </c>
-      <c r="F160">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
-      </c>
-    </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E161">
-        <f ca="1"/>
-        <v>160</v>
-      </c>
-      <c r="F161">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467333</v>
-      </c>
-    </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E162">
-        <f ca="1"/>
-        <v>161</v>
-      </c>
-      <c r="F162">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E163">
-        <f ca="1"/>
-        <v>162</v>
-      </c>
-      <c r="F163">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E164">
-        <f ca="1"/>
-        <v>163</v>
-      </c>
-      <c r="F164">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E165">
-        <f ca="1"/>
-        <v>164</v>
-      </c>
-      <c r="F165">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E166">
-        <f ca="1"/>
-        <v>165</v>
-      </c>
-      <c r="F166">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E167">
-        <f ca="1"/>
-        <v>166</v>
-      </c>
-      <c r="F167">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E168">
-        <f ca="1"/>
-        <v>167</v>
-      </c>
-      <c r="F168">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E169">
-        <f ca="1"/>
-        <v>168</v>
-      </c>
-      <c r="F169">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E170">
-        <f ca="1"/>
-        <v>169</v>
-      </c>
-      <c r="F170">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E171">
-        <f ca="1"/>
-        <v>170</v>
-      </c>
-      <c r="F171">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E172">
-        <f ca="1"/>
-        <v>171</v>
-      </c>
-      <c r="F172">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E173">
-        <f ca="1"/>
-        <v>172</v>
-      </c>
-      <c r="F173">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E174">
-        <f ca="1"/>
-        <v>173</v>
-      </c>
-      <c r="F174">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E175">
-        <f ca="1"/>
-        <v>174</v>
-      </c>
-      <c r="F175">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E176">
-        <f ca="1"/>
-        <v>175</v>
-      </c>
-      <c r="F176">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E177">
-        <f ca="1"/>
-        <v>176</v>
-      </c>
-      <c r="F177">
-        <f t="shared" ca="1" si="3"/>
-        <v>96467330</v>
-      </c>
-    </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E178">
-        <f ca="1"/>
-        <v>177</v>
-      </c>
-      <c r="F178">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E179">
-        <f ca="1"/>
-        <v>178</v>
-      </c>
-      <c r="F179">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E180">
-        <f ca="1"/>
-        <v>179</v>
-      </c>
-      <c r="F180">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E181">
-        <f ca="1"/>
-        <v>180</v>
-      </c>
-      <c r="F181">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E182">
-        <f ca="1"/>
-        <v>181</v>
-      </c>
-      <c r="F182">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E183">
-        <f ca="1"/>
-        <v>182</v>
-      </c>
-      <c r="F183">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E184">
-        <f ca="1"/>
-        <v>183</v>
-      </c>
-      <c r="F184">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E185">
-        <f ca="1"/>
-        <v>184</v>
-      </c>
-      <c r="F185">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E186">
-        <f ca="1"/>
-        <v>185</v>
-      </c>
-      <c r="F186">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E187">
-        <f ca="1"/>
-        <v>186</v>
-      </c>
-      <c r="F187">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E188">
-        <f ca="1"/>
-        <v>187</v>
-      </c>
-      <c r="F188">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E189">
-        <f ca="1"/>
-        <v>188</v>
-      </c>
-      <c r="F189">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E190">
-        <f ca="1"/>
-        <v>189</v>
-      </c>
-      <c r="F190">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E191">
-        <f ca="1"/>
-        <v>190</v>
-      </c>
-      <c r="F191">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E192">
-        <f ca="1"/>
-        <v>191</v>
-      </c>
-      <c r="F192">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E193">
-        <f ca="1"/>
-        <v>192</v>
-      </c>
-      <c r="F193">
-        <f t="shared" ca="1" si="3"/>
-        <v>96417784</v>
-      </c>
-    </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E194">
-        <f ca="1"/>
-        <v>193</v>
-      </c>
-      <c r="F194">
-        <f t="shared" ca="1" si="3"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E195">
-        <f ca="1"/>
-        <v>194</v>
-      </c>
-      <c r="F195">
-        <f t="shared" ref="F195:F258" ca="1" si="4">VLOOKUP(E195,$A$2:$B$978,2)</f>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E196">
-        <f ca="1"/>
-        <v>195</v>
-      </c>
-      <c r="F196">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E197">
-        <f ca="1"/>
-        <v>196</v>
-      </c>
-      <c r="F197">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E198">
-        <f ca="1"/>
-        <v>197</v>
-      </c>
-      <c r="F198">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E199">
-        <f ca="1"/>
-        <v>198</v>
-      </c>
-      <c r="F199">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E200">
-        <f ca="1"/>
-        <v>199</v>
-      </c>
-      <c r="F200">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E201">
-        <f ca="1"/>
-        <v>200</v>
-      </c>
-      <c r="F201">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E202">
-        <f ca="1"/>
-        <v>201</v>
-      </c>
-      <c r="F202">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E203">
-        <f ca="1"/>
-        <v>202</v>
-      </c>
-      <c r="F203">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E204">
-        <f ca="1"/>
-        <v>203</v>
-      </c>
-      <c r="F204">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E205">
-        <f ca="1"/>
-        <v>204</v>
-      </c>
-      <c r="F205">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E206">
-        <f ca="1"/>
-        <v>205</v>
-      </c>
-      <c r="F206">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E207">
-        <f ca="1"/>
-        <v>206</v>
-      </c>
-      <c r="F207">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E208">
-        <f ca="1"/>
-        <v>207</v>
-      </c>
-      <c r="F208">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E209">
-        <f ca="1"/>
-        <v>208</v>
-      </c>
-      <c r="F209">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416168</v>
-      </c>
-    </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E210">
-        <f ca="1"/>
-        <v>209</v>
-      </c>
-      <c r="F210">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E211">
-        <f ca="1"/>
-        <v>210</v>
-      </c>
-      <c r="F211">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E212">
-        <f ca="1"/>
-        <v>211</v>
-      </c>
-      <c r="F212">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E213">
-        <f ca="1"/>
-        <v>212</v>
-      </c>
-      <c r="F213">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E214">
-        <f ca="1"/>
-        <v>213</v>
-      </c>
-      <c r="F214">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E215">
-        <f ca="1"/>
-        <v>214</v>
-      </c>
-      <c r="F215">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E216">
-        <f ca="1"/>
-        <v>215</v>
-      </c>
-      <c r="F216">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E217">
-        <f ca="1"/>
-        <v>216</v>
-      </c>
-      <c r="F217">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E218">
-        <f ca="1"/>
-        <v>217</v>
-      </c>
-      <c r="F218">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E219">
-        <f ca="1"/>
-        <v>218</v>
-      </c>
-      <c r="F219">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E220">
-        <f ca="1"/>
-        <v>219</v>
-      </c>
-      <c r="F220">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E221">
-        <f ca="1"/>
-        <v>220</v>
-      </c>
-      <c r="F221">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E222">
-        <f ca="1"/>
-        <v>221</v>
-      </c>
-      <c r="F222">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E223">
-        <f ca="1"/>
-        <v>222</v>
-      </c>
-      <c r="F223">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E224">
-        <f ca="1"/>
-        <v>223</v>
-      </c>
-      <c r="F224">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E225">
-        <f ca="1"/>
-        <v>224</v>
-      </c>
-      <c r="F225">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467332</v>
-      </c>
-    </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E226">
-        <f ca="1"/>
-        <v>225</v>
-      </c>
-      <c r="F226">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E227">
-        <f ca="1"/>
-        <v>226</v>
-      </c>
-      <c r="F227">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E228">
-        <f ca="1"/>
-        <v>227</v>
-      </c>
-      <c r="F228">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E229">
-        <f ca="1"/>
-        <v>228</v>
-      </c>
-      <c r="F229">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E230">
-        <f ca="1"/>
-        <v>229</v>
-      </c>
-      <c r="F230">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E231">
-        <f ca="1"/>
-        <v>230</v>
-      </c>
-      <c r="F231">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E232">
-        <f ca="1"/>
-        <v>231</v>
-      </c>
-      <c r="F232">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E233">
-        <f ca="1"/>
-        <v>232</v>
-      </c>
-      <c r="F233">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E234">
-        <f ca="1"/>
-        <v>233</v>
-      </c>
-      <c r="F234">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E235">
-        <f ca="1"/>
-        <v>234</v>
-      </c>
-      <c r="F235">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E236">
-        <f ca="1"/>
-        <v>235</v>
-      </c>
-      <c r="F236">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E237">
-        <f ca="1"/>
-        <v>236</v>
-      </c>
-      <c r="F237">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E238">
-        <f ca="1"/>
-        <v>237</v>
-      </c>
-      <c r="F238">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E239">
-        <f ca="1"/>
-        <v>238</v>
-      </c>
-      <c r="F239">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E240">
-        <f ca="1"/>
-        <v>239</v>
-      </c>
-      <c r="F240">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E241">
-        <f ca="1"/>
-        <v>240</v>
-      </c>
-      <c r="F241">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416164</v>
-      </c>
-    </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E242">
-        <f ca="1"/>
-        <v>241</v>
-      </c>
-      <c r="F242">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E243">
-        <f ca="1"/>
-        <v>242</v>
-      </c>
-      <c r="F243">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E244">
-        <f ca="1"/>
-        <v>243</v>
-      </c>
-      <c r="F244">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E245">
-        <f ca="1"/>
-        <v>244</v>
-      </c>
-      <c r="F245">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E246">
-        <f ca="1"/>
-        <v>245</v>
-      </c>
-      <c r="F246">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E247">
-        <f ca="1"/>
-        <v>246</v>
-      </c>
-      <c r="F247">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E248">
-        <f ca="1"/>
-        <v>247</v>
-      </c>
-      <c r="F248">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E249">
-        <f ca="1"/>
-        <v>248</v>
-      </c>
-      <c r="F249">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E250">
-        <f ca="1"/>
-        <v>249</v>
-      </c>
-      <c r="F250">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E251">
-        <f ca="1"/>
-        <v>250</v>
-      </c>
-      <c r="F251">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E252">
-        <f ca="1"/>
-        <v>251</v>
-      </c>
-      <c r="F252">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E253">
-        <f ca="1"/>
-        <v>252</v>
-      </c>
-      <c r="F253">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E254">
-        <f ca="1"/>
-        <v>253</v>
-      </c>
-      <c r="F254">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E255">
-        <f ca="1"/>
-        <v>254</v>
-      </c>
-      <c r="F255">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E256">
-        <f ca="1"/>
-        <v>255</v>
-      </c>
-      <c r="F256">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="257" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E257">
-        <f ca="1"/>
-        <v>256</v>
-      </c>
-      <c r="F257">
-        <f t="shared" ca="1" si="4"/>
-        <v>96416160</v>
-      </c>
-    </row>
-    <row r="258" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E258">
-        <f ca="1"/>
-        <v>257</v>
-      </c>
-      <c r="F258">
-        <f t="shared" ca="1" si="4"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E259">
-        <f ca="1"/>
-        <v>258</v>
-      </c>
-      <c r="F259">
-        <f t="shared" ref="F259:F322" ca="1" si="5">VLOOKUP(E259,$A$2:$B$978,2)</f>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="260" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E260">
-        <f ca="1"/>
-        <v>259</v>
-      </c>
-      <c r="F260">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E261">
-        <f ca="1"/>
-        <v>260</v>
-      </c>
-      <c r="F261">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E262">
-        <f ca="1"/>
-        <v>261</v>
-      </c>
-      <c r="F262">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="263" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E263">
-        <f ca="1"/>
-        <v>262</v>
-      </c>
-      <c r="F263">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="264" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E264">
-        <f ca="1"/>
-        <v>263</v>
-      </c>
-      <c r="F264">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="265" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E265">
-        <f ca="1"/>
-        <v>264</v>
-      </c>
-      <c r="F265">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="266" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E266">
-        <f ca="1"/>
-        <v>265</v>
-      </c>
-      <c r="F266">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="267" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E267">
-        <f ca="1"/>
-        <v>266</v>
-      </c>
-      <c r="F267">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="268" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E268">
-        <f ca="1"/>
-        <v>267</v>
-      </c>
-      <c r="F268">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="269" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E269">
-        <f ca="1"/>
-        <v>268</v>
-      </c>
-      <c r="F269">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="270" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E270">
-        <f ca="1"/>
-        <v>269</v>
-      </c>
-      <c r="F270">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="271" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E271">
-        <f ca="1"/>
-        <v>270</v>
-      </c>
-      <c r="F271">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="272" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E272">
-        <f ca="1"/>
-        <v>271</v>
-      </c>
-      <c r="F272">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="273" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E273">
-        <f ca="1"/>
-        <v>272</v>
-      </c>
-      <c r="F273">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467346</v>
-      </c>
-    </row>
-    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E274">
-        <f ca="1"/>
-        <v>273</v>
-      </c>
-      <c r="F274">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="275" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E275">
-        <f ca="1"/>
-        <v>274</v>
-      </c>
-      <c r="F275">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E276">
-        <f ca="1"/>
-        <v>275</v>
-      </c>
-      <c r="F276">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="277" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E277">
-        <f ca="1"/>
-        <v>276</v>
-      </c>
-      <c r="F277">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="278" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E278">
-        <f ca="1"/>
-        <v>277</v>
-      </c>
-      <c r="F278">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="279" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E279">
-        <f ca="1"/>
-        <v>278</v>
-      </c>
-      <c r="F279">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="280" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E280">
-        <f ca="1"/>
-        <v>279</v>
-      </c>
-      <c r="F280">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="281" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E281">
-        <f ca="1"/>
-        <v>280</v>
-      </c>
-      <c r="F281">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="282" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E282">
-        <f ca="1"/>
-        <v>281</v>
-      </c>
-      <c r="F282">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E283">
-        <f ca="1"/>
-        <v>282</v>
-      </c>
-      <c r="F283">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="284" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E284">
-        <f ca="1"/>
-        <v>283</v>
-      </c>
-      <c r="F284">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E285">
-        <f ca="1"/>
-        <v>284</v>
-      </c>
-      <c r="F285">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="286" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E286">
-        <f ca="1"/>
-        <v>285</v>
-      </c>
-      <c r="F286">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="287" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E287">
-        <f ca="1"/>
-        <v>286</v>
-      </c>
-      <c r="F287">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="288" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E288">
-        <f ca="1"/>
-        <v>287</v>
-      </c>
-      <c r="F288">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="289" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E289">
-        <f ca="1"/>
-        <v>288</v>
-      </c>
-      <c r="F289">
-        <f t="shared" ca="1" si="5"/>
-        <v>96467342</v>
-      </c>
-    </row>
-    <row r="290" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E290">
-        <f ca="1"/>
-        <v>289</v>
-      </c>
-      <c r="F290">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F160" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195" t="e">
+        <f t="shared" ref="F195:F258" si="4">VLOOKUP(E195,$A$2:$B$978,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F206" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F207" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F208" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F209" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F210" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F211" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F212" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F213" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F214" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F215" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F216" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F217" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F218" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F219" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F220" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F221" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F222" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F223" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F224" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F225" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F226" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F227" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F228" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F229" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F230" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F231" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F232" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F233" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F234" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F235" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F236" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F237" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F238" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F239" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F240" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F241" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F242" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F243" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F244" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F245" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F246" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F247" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F248" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F249" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F250" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F251" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F252" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F253" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F254" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F255" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F256" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F257" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F258" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F259" t="e">
+        <f t="shared" ref="F259:F322" si="5">VLOOKUP(E259,$A$2:$B$978,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F260" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F261" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F262" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F263" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F264" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F265" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F266" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F267" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F268" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F269" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F270" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F271" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F272" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F273" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F274" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F275" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F276" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F277" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F278" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F279" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F280" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F281" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F282" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F283" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F284" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F285" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F286" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F287" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F288" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F289" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F290" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F291" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F292" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F293" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F294" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F295" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F296" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F297" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F298" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F299" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F300" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F301" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F302" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F303" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F304" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
@@ -6059,8 +5090,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B12">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
